--- a/2022/Symphony/MARCH/08.03.2022/MC Bank Statement March-2022.xlsx
+++ b/2022/Symphony/MARCH/08.03.2022/MC Bank Statement March-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Symphony\MARCH\07.03.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Symphony\MARCH\08.03.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -723,25 +723,22 @@
     <t>07.03.2022</t>
   </si>
   <si>
-    <t>Date:07.03.2022</t>
-  </si>
-  <si>
     <t>Momtaj</t>
   </si>
   <si>
     <t>Babu Computer</t>
   </si>
   <si>
-    <t>Ayan Telecom</t>
+    <t>08.03.2022</t>
   </si>
   <si>
-    <t>S.A Mobile Mart</t>
+    <t>Date:08.03.2022</t>
   </si>
   <si>
-    <t>Rafiq Con</t>
+    <t xml:space="preserve">Rijia </t>
   </si>
   <si>
-    <t>Tutul bKash</t>
+    <t>Friends Mobile Collection</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2093,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3010,21 +3007,6 @@
     <xf numFmtId="15" fontId="43" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="43" fillId="42" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="21" fontId="37" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3846,33 +3828,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="322"/>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
+      <c r="A1" s="317"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="323"/>
-      <c r="B2" s="320" t="s">
+      <c r="A2" s="318"/>
+      <c r="B2" s="315" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="323"/>
-      <c r="B3" s="321" t="s">
+      <c r="A3" s="318"/>
+      <c r="B3" s="316" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="323"/>
+      <c r="A4" s="318"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +3872,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="323"/>
+      <c r="A5" s="318"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3908,7 +3890,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="323"/>
+      <c r="A6" s="318"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3920,7 +3902,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="323"/>
+      <c r="A7" s="318"/>
       <c r="B7" s="26" t="s">
         <v>58</v>
       </c>
@@ -3939,7 +3921,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="323"/>
+      <c r="A8" s="318"/>
       <c r="B8" s="26" t="s">
         <v>59</v>
       </c>
@@ -3958,7 +3940,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="323"/>
+      <c r="A9" s="318"/>
       <c r="B9" s="26" t="s">
         <v>61</v>
       </c>
@@ -3977,7 +3959,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="323"/>
+      <c r="A10" s="318"/>
       <c r="B10" s="26" t="s">
         <v>62</v>
       </c>
@@ -3996,7 +3978,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="323"/>
+      <c r="A11" s="318"/>
       <c r="B11" s="26" t="s">
         <v>63</v>
       </c>
@@ -4015,7 +3997,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="323"/>
+      <c r="A12" s="318"/>
       <c r="B12" s="26" t="s">
         <v>64</v>
       </c>
@@ -4034,7 +4016,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="323"/>
+      <c r="A13" s="318"/>
       <c r="B13" s="26" t="s">
         <v>65</v>
       </c>
@@ -4053,7 +4035,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="323"/>
+      <c r="A14" s="318"/>
       <c r="B14" s="26" t="s">
         <v>66</v>
       </c>
@@ -4072,7 +4054,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="323"/>
+      <c r="A15" s="318"/>
       <c r="B15" s="26" t="s">
         <v>67</v>
       </c>
@@ -4091,7 +4073,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="323"/>
+      <c r="A16" s="318"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4104,7 +4086,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="323"/>
+      <c r="A17" s="318"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4117,7 +4099,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="323"/>
+      <c r="A18" s="318"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4130,7 +4112,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="323"/>
+      <c r="A19" s="318"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4143,7 +4125,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="323"/>
+      <c r="A20" s="318"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4156,7 +4138,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="323"/>
+      <c r="A21" s="318"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4169,7 +4151,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="323"/>
+      <c r="A22" s="318"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4182,7 +4164,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="323"/>
+      <c r="A23" s="318"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4195,7 +4177,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="323"/>
+      <c r="A24" s="318"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4208,7 +4190,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="323"/>
+      <c r="A25" s="318"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4221,7 +4203,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="323"/>
+      <c r="A26" s="318"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4234,7 +4216,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="323"/>
+      <c r="A27" s="318"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4247,7 +4229,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="323"/>
+      <c r="A28" s="318"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4260,7 +4242,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="323"/>
+      <c r="A29" s="318"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4273,7 +4255,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="323"/>
+      <c r="A30" s="318"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4286,7 +4268,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="323"/>
+      <c r="A31" s="318"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4299,7 +4281,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="323"/>
+      <c r="A32" s="318"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4312,7 +4294,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="323"/>
+      <c r="A33" s="318"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4325,7 +4307,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="323"/>
+      <c r="A34" s="318"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4338,7 +4320,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="323"/>
+      <c r="A35" s="318"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4351,7 +4333,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="323"/>
+      <c r="A36" s="318"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4364,7 +4346,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="323"/>
+      <c r="A37" s="318"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4377,7 +4359,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="323"/>
+      <c r="A38" s="318"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4390,7 +4372,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="323"/>
+      <c r="A39" s="318"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4403,7 +4385,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="323"/>
+      <c r="A40" s="318"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4416,7 +4398,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="323"/>
+      <c r="A41" s="318"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4429,7 +4411,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="323"/>
+      <c r="A42" s="318"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4442,7 +4424,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="323"/>
+      <c r="A43" s="318"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4455,7 +4437,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="323"/>
+      <c r="A44" s="318"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4468,7 +4450,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="323"/>
+      <c r="A45" s="318"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4481,7 +4463,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="323"/>
+      <c r="A46" s="318"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4494,7 +4476,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="323"/>
+      <c r="A47" s="318"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4507,7 +4489,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="323"/>
+      <c r="A48" s="318"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4520,7 +4502,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="323"/>
+      <c r="A49" s="318"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4533,7 +4515,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="323"/>
+      <c r="A50" s="318"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4546,7 +4528,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="323"/>
+      <c r="A51" s="318"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4559,7 +4541,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="323"/>
+      <c r="A52" s="318"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4572,7 +4554,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="323"/>
+      <c r="A53" s="318"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4585,7 +4567,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="323"/>
+      <c r="A54" s="318"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4598,7 +4580,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="323"/>
+      <c r="A55" s="318"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4610,7 +4592,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="323"/>
+      <c r="A56" s="318"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4622,7 +4604,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="323"/>
+      <c r="A57" s="318"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4634,7 +4616,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="323"/>
+      <c r="A58" s="318"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4646,7 +4628,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="323"/>
+      <c r="A59" s="318"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4658,7 +4640,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="323"/>
+      <c r="A60" s="318"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4670,7 +4652,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="323"/>
+      <c r="A61" s="318"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4682,7 +4664,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="323"/>
+      <c r="A62" s="318"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4694,7 +4676,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="323"/>
+      <c r="A63" s="318"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4706,7 +4688,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="323"/>
+      <c r="A64" s="318"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4718,7 +4700,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="323"/>
+      <c r="A65" s="318"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4730,7 +4712,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="323"/>
+      <c r="A66" s="318"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4742,7 +4724,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="323"/>
+      <c r="A67" s="318"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4754,7 +4736,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="323"/>
+      <c r="A68" s="318"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4766,7 +4748,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="323"/>
+      <c r="A69" s="318"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4778,7 +4760,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="323"/>
+      <c r="A70" s="318"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4790,7 +4772,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="323"/>
+      <c r="A71" s="318"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4802,7 +4784,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="323"/>
+      <c r="A72" s="318"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4814,7 +4796,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="323"/>
+      <c r="A73" s="318"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4826,7 +4808,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="323"/>
+      <c r="A74" s="318"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4838,7 +4820,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="323"/>
+      <c r="A75" s="318"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4850,7 +4832,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="323"/>
+      <c r="A76" s="318"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4862,7 +4844,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="323"/>
+      <c r="A77" s="318"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4874,7 +4856,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="323"/>
+      <c r="A78" s="318"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4886,7 +4868,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="323"/>
+      <c r="A79" s="318"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4898,7 +4880,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="323"/>
+      <c r="A80" s="318"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4910,7 +4892,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="323"/>
+      <c r="A81" s="318"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4922,7 +4904,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="323"/>
+      <c r="A82" s="318"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4934,7 +4916,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="323"/>
+      <c r="A83" s="318"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4974,7 +4956,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4991,33 +4973,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="322"/>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
+      <c r="A1" s="317"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="323"/>
-      <c r="B2" s="320" t="s">
+      <c r="A2" s="318"/>
+      <c r="B2" s="315" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="323"/>
-      <c r="B3" s="321" t="s">
+      <c r="A3" s="318"/>
+      <c r="B3" s="316" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="323"/>
+      <c r="A4" s="318"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5035,7 +5017,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="323"/>
+      <c r="A5" s="318"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5053,7 +5035,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="323"/>
+      <c r="A6" s="318"/>
       <c r="B6" s="26"/>
       <c r="C6" s="266"/>
       <c r="D6" s="266"/>
@@ -5065,7 +5047,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="323"/>
+      <c r="A7" s="318"/>
       <c r="B7" s="26" t="s">
         <v>193</v>
       </c>
@@ -5083,7 +5065,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="323"/>
+      <c r="A8" s="318"/>
       <c r="B8" s="26" t="s">
         <v>200</v>
       </c>
@@ -5101,7 +5083,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="323"/>
+      <c r="A9" s="318"/>
       <c r="B9" s="26" t="s">
         <v>206</v>
       </c>
@@ -5119,7 +5101,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="323"/>
+      <c r="A10" s="318"/>
       <c r="B10" s="26" t="s">
         <v>209</v>
       </c>
@@ -5137,7 +5119,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="323"/>
+      <c r="A11" s="318"/>
       <c r="B11" s="26" t="s">
         <v>214</v>
       </c>
@@ -5155,7 +5137,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="323"/>
+      <c r="A12" s="318"/>
       <c r="B12" s="26" t="s">
         <v>220</v>
       </c>
@@ -5173,10 +5155,16 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="323"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="266"/>
-      <c r="D13" s="266"/>
+      <c r="A13" s="318"/>
+      <c r="B13" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="266">
+        <v>6500000</v>
+      </c>
+      <c r="D13" s="266">
+        <v>6500000</v>
+      </c>
       <c r="E13" s="268">
         <f t="shared" si="0"/>
         <v>11038</v>
@@ -5185,7 +5173,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="323"/>
+      <c r="A14" s="318"/>
       <c r="B14" s="26"/>
       <c r="C14" s="266"/>
       <c r="D14" s="266"/>
@@ -5197,7 +5185,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="323"/>
+      <c r="A15" s="318"/>
       <c r="B15" s="26"/>
       <c r="C15" s="266"/>
       <c r="D15" s="266"/>
@@ -5209,7 +5197,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="323"/>
+      <c r="A16" s="318"/>
       <c r="B16" s="26"/>
       <c r="C16" s="266"/>
       <c r="D16" s="266"/>
@@ -5221,7 +5209,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="323"/>
+      <c r="A17" s="318"/>
       <c r="B17" s="26"/>
       <c r="C17" s="266"/>
       <c r="D17" s="266"/>
@@ -5233,7 +5221,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="323"/>
+      <c r="A18" s="318"/>
       <c r="B18" s="26"/>
       <c r="C18" s="266"/>
       <c r="D18" s="266"/>
@@ -5245,7 +5233,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="323"/>
+      <c r="A19" s="318"/>
       <c r="B19" s="26"/>
       <c r="C19" s="266"/>
       <c r="D19" s="269"/>
@@ -5257,7 +5245,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="323"/>
+      <c r="A20" s="318"/>
       <c r="B20" s="26"/>
       <c r="C20" s="266"/>
       <c r="D20" s="266"/>
@@ -5269,7 +5257,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="323"/>
+      <c r="A21" s="318"/>
       <c r="B21" s="26"/>
       <c r="C21" s="266"/>
       <c r="D21" s="266"/>
@@ -5281,7 +5269,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="323"/>
+      <c r="A22" s="318"/>
       <c r="B22" s="26"/>
       <c r="C22" s="266"/>
       <c r="D22" s="266"/>
@@ -5293,7 +5281,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="323"/>
+      <c r="A23" s="318"/>
       <c r="B23" s="26"/>
       <c r="C23" s="266"/>
       <c r="D23" s="266"/>
@@ -5305,7 +5293,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="323"/>
+      <c r="A24" s="318"/>
       <c r="B24" s="26"/>
       <c r="C24" s="266"/>
       <c r="D24" s="266"/>
@@ -5317,7 +5305,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="323"/>
+      <c r="A25" s="318"/>
       <c r="B25" s="26"/>
       <c r="C25" s="266"/>
       <c r="D25" s="266"/>
@@ -5329,7 +5317,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="323"/>
+      <c r="A26" s="318"/>
       <c r="B26" s="26"/>
       <c r="C26" s="266"/>
       <c r="D26" s="266"/>
@@ -5341,7 +5329,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="323"/>
+      <c r="A27" s="318"/>
       <c r="B27" s="26"/>
       <c r="C27" s="266"/>
       <c r="D27" s="266"/>
@@ -5353,7 +5341,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="323"/>
+      <c r="A28" s="318"/>
       <c r="B28" s="26"/>
       <c r="C28" s="266"/>
       <c r="D28" s="266"/>
@@ -5365,7 +5353,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="323"/>
+      <c r="A29" s="318"/>
       <c r="B29" s="26"/>
       <c r="C29" s="266"/>
       <c r="D29" s="266"/>
@@ -5377,7 +5365,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="323"/>
+      <c r="A30" s="318"/>
       <c r="B30" s="26"/>
       <c r="C30" s="266"/>
       <c r="D30" s="266"/>
@@ -5389,7 +5377,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="323"/>
+      <c r="A31" s="318"/>
       <c r="B31" s="26"/>
       <c r="C31" s="266"/>
       <c r="D31" s="266"/>
@@ -5401,7 +5389,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="323"/>
+      <c r="A32" s="318"/>
       <c r="B32" s="26"/>
       <c r="C32" s="266"/>
       <c r="D32" s="266"/>
@@ -5413,7 +5401,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="323"/>
+      <c r="A33" s="318"/>
       <c r="B33" s="26"/>
       <c r="C33" s="266"/>
       <c r="D33" s="269"/>
@@ -5425,7 +5413,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="323"/>
+      <c r="A34" s="318"/>
       <c r="B34" s="26"/>
       <c r="C34" s="266"/>
       <c r="D34" s="266"/>
@@ -5437,7 +5425,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="323"/>
+      <c r="A35" s="318"/>
       <c r="B35" s="26"/>
       <c r="C35" s="266"/>
       <c r="D35" s="266"/>
@@ -5449,7 +5437,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="323"/>
+      <c r="A36" s="318"/>
       <c r="B36" s="26"/>
       <c r="C36" s="266"/>
       <c r="D36" s="266"/>
@@ -5461,7 +5449,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="323"/>
+      <c r="A37" s="318"/>
       <c r="B37" s="26"/>
       <c r="C37" s="266"/>
       <c r="D37" s="266"/>
@@ -5473,7 +5461,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="323"/>
+      <c r="A38" s="318"/>
       <c r="B38" s="26"/>
       <c r="C38" s="266"/>
       <c r="D38" s="266"/>
@@ -5485,7 +5473,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="323"/>
+      <c r="A39" s="318"/>
       <c r="B39" s="26"/>
       <c r="C39" s="266"/>
       <c r="D39" s="266"/>
@@ -5497,7 +5485,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="323"/>
+      <c r="A40" s="318"/>
       <c r="B40" s="26"/>
       <c r="C40" s="266"/>
       <c r="D40" s="266"/>
@@ -5509,7 +5497,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="323"/>
+      <c r="A41" s="318"/>
       <c r="B41" s="26"/>
       <c r="C41" s="266"/>
       <c r="D41" s="266"/>
@@ -5521,7 +5509,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="323"/>
+      <c r="A42" s="318"/>
       <c r="B42" s="26"/>
       <c r="C42" s="266"/>
       <c r="D42" s="266"/>
@@ -5533,7 +5521,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="323"/>
+      <c r="A43" s="318"/>
       <c r="B43" s="26"/>
       <c r="C43" s="266"/>
       <c r="D43" s="266"/>
@@ -5545,7 +5533,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="323"/>
+      <c r="A44" s="318"/>
       <c r="B44" s="26"/>
       <c r="C44" s="266"/>
       <c r="D44" s="266"/>
@@ -5557,7 +5545,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="323"/>
+      <c r="A45" s="318"/>
       <c r="B45" s="26"/>
       <c r="C45" s="266"/>
       <c r="D45" s="266"/>
@@ -5569,7 +5557,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="323"/>
+      <c r="A46" s="318"/>
       <c r="B46" s="26"/>
       <c r="C46" s="266"/>
       <c r="D46" s="266"/>
@@ -5581,7 +5569,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="323"/>
+      <c r="A47" s="318"/>
       <c r="B47" s="26"/>
       <c r="C47" s="266"/>
       <c r="D47" s="266"/>
@@ -5593,7 +5581,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="323"/>
+      <c r="A48" s="318"/>
       <c r="B48" s="26"/>
       <c r="C48" s="266"/>
       <c r="D48" s="266"/>
@@ -5605,7 +5593,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="323"/>
+      <c r="A49" s="318"/>
       <c r="B49" s="26"/>
       <c r="C49" s="266"/>
       <c r="D49" s="266"/>
@@ -5617,7 +5605,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="323"/>
+      <c r="A50" s="318"/>
       <c r="B50" s="26"/>
       <c r="C50" s="266"/>
       <c r="D50" s="266"/>
@@ -5629,7 +5617,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="323"/>
+      <c r="A51" s="318"/>
       <c r="B51" s="26"/>
       <c r="C51" s="266"/>
       <c r="D51" s="266"/>
@@ -5641,7 +5629,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="323"/>
+      <c r="A52" s="318"/>
       <c r="B52" s="26"/>
       <c r="C52" s="266"/>
       <c r="D52" s="266"/>
@@ -5653,7 +5641,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="323"/>
+      <c r="A53" s="318"/>
       <c r="B53" s="26"/>
       <c r="C53" s="266"/>
       <c r="D53" s="266"/>
@@ -5665,7 +5653,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="323"/>
+      <c r="A54" s="318"/>
       <c r="B54" s="26"/>
       <c r="C54" s="266"/>
       <c r="D54" s="266"/>
@@ -5677,7 +5665,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="323"/>
+      <c r="A55" s="318"/>
       <c r="B55" s="26"/>
       <c r="C55" s="266"/>
       <c r="D55" s="266"/>
@@ -5688,7 +5676,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="323"/>
+      <c r="A56" s="318"/>
       <c r="B56" s="26"/>
       <c r="C56" s="266"/>
       <c r="D56" s="266"/>
@@ -5699,7 +5687,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="323"/>
+      <c r="A57" s="318"/>
       <c r="B57" s="26"/>
       <c r="C57" s="266"/>
       <c r="D57" s="266"/>
@@ -5710,7 +5698,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="323"/>
+      <c r="A58" s="318"/>
       <c r="B58" s="26"/>
       <c r="C58" s="266"/>
       <c r="D58" s="266"/>
@@ -5721,7 +5709,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="323"/>
+      <c r="A59" s="318"/>
       <c r="B59" s="26"/>
       <c r="C59" s="266"/>
       <c r="D59" s="266"/>
@@ -5732,7 +5720,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="323"/>
+      <c r="A60" s="318"/>
       <c r="B60" s="26"/>
       <c r="C60" s="266"/>
       <c r="D60" s="266"/>
@@ -5743,7 +5731,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="323"/>
+      <c r="A61" s="318"/>
       <c r="B61" s="26"/>
       <c r="C61" s="266"/>
       <c r="D61" s="266"/>
@@ -5754,7 +5742,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="323"/>
+      <c r="A62" s="318"/>
       <c r="B62" s="26"/>
       <c r="C62" s="266"/>
       <c r="D62" s="266"/>
@@ -5765,7 +5753,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="323"/>
+      <c r="A63" s="318"/>
       <c r="B63" s="26"/>
       <c r="C63" s="266"/>
       <c r="D63" s="266"/>
@@ -5776,7 +5764,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="323"/>
+      <c r="A64" s="318"/>
       <c r="B64" s="26"/>
       <c r="C64" s="266"/>
       <c r="D64" s="266"/>
@@ -5787,7 +5775,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="323"/>
+      <c r="A65" s="318"/>
       <c r="B65" s="26"/>
       <c r="C65" s="266"/>
       <c r="D65" s="266"/>
@@ -5798,7 +5786,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="323"/>
+      <c r="A66" s="318"/>
       <c r="B66" s="26"/>
       <c r="C66" s="266"/>
       <c r="D66" s="266"/>
@@ -5809,7 +5797,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="323"/>
+      <c r="A67" s="318"/>
       <c r="B67" s="26"/>
       <c r="C67" s="266"/>
       <c r="D67" s="266"/>
@@ -5820,7 +5808,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="323"/>
+      <c r="A68" s="318"/>
       <c r="B68" s="26"/>
       <c r="C68" s="266"/>
       <c r="D68" s="266"/>
@@ -5831,7 +5819,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="323"/>
+      <c r="A69" s="318"/>
       <c r="B69" s="26"/>
       <c r="C69" s="266"/>
       <c r="D69" s="266"/>
@@ -5842,7 +5830,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="323"/>
+      <c r="A70" s="318"/>
       <c r="B70" s="26"/>
       <c r="C70" s="266"/>
       <c r="D70" s="266"/>
@@ -5853,7 +5841,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="323"/>
+      <c r="A71" s="318"/>
       <c r="B71" s="26"/>
       <c r="C71" s="266"/>
       <c r="D71" s="266"/>
@@ -5864,7 +5852,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="323"/>
+      <c r="A72" s="318"/>
       <c r="B72" s="26"/>
       <c r="C72" s="266"/>
       <c r="D72" s="266"/>
@@ -5875,7 +5863,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="323"/>
+      <c r="A73" s="318"/>
       <c r="B73" s="26"/>
       <c r="C73" s="266"/>
       <c r="D73" s="266"/>
@@ -5886,7 +5874,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="323"/>
+      <c r="A74" s="318"/>
       <c r="B74" s="26"/>
       <c r="C74" s="266"/>
       <c r="D74" s="266"/>
@@ -5897,7 +5885,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="323"/>
+      <c r="A75" s="318"/>
       <c r="B75" s="26"/>
       <c r="C75" s="266"/>
       <c r="D75" s="266"/>
@@ -5908,7 +5896,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="323"/>
+      <c r="A76" s="318"/>
       <c r="B76" s="26"/>
       <c r="C76" s="266"/>
       <c r="D76" s="266"/>
@@ -5919,7 +5907,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="323"/>
+      <c r="A77" s="318"/>
       <c r="B77" s="26"/>
       <c r="C77" s="266"/>
       <c r="D77" s="266"/>
@@ -5930,7 +5918,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="323"/>
+      <c r="A78" s="318"/>
       <c r="B78" s="26"/>
       <c r="C78" s="266"/>
       <c r="D78" s="266"/>
@@ -5941,7 +5929,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="323"/>
+      <c r="A79" s="318"/>
       <c r="B79" s="26"/>
       <c r="C79" s="266"/>
       <c r="D79" s="266"/>
@@ -5953,7 +5941,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="323"/>
+      <c r="A80" s="318"/>
       <c r="B80" s="26"/>
       <c r="C80" s="266"/>
       <c r="D80" s="266"/>
@@ -5965,7 +5953,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="323"/>
+      <c r="A81" s="318"/>
       <c r="B81" s="26"/>
       <c r="C81" s="266"/>
       <c r="D81" s="266"/>
@@ -5977,7 +5965,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="323"/>
+      <c r="A82" s="318"/>
       <c r="B82" s="26"/>
       <c r="C82" s="266"/>
       <c r="D82" s="266"/>
@@ -5989,15 +5977,15 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="323"/>
+      <c r="A83" s="318"/>
       <c r="B83" s="31"/>
       <c r="C83" s="268">
         <f>SUM(C5:C72)</f>
-        <v>981038</v>
+        <v>7481038</v>
       </c>
       <c r="D83" s="268">
         <f>SUM(D5:D77)</f>
-        <v>970000</v>
+        <v>7470000</v>
       </c>
       <c r="E83" s="270">
         <f>E71</f>
@@ -6031,9 +6019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6047,67 +6035,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="323" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="328"/>
-      <c r="L1" s="328"/>
-      <c r="M1" s="328"/>
-      <c r="N1" s="328"/>
-      <c r="O1" s="328"/>
-      <c r="P1" s="328"/>
-      <c r="Q1" s="328"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
+      <c r="P1" s="323"/>
+      <c r="Q1" s="323"/>
     </row>
     <row r="2" spans="1:24" s="72" customFormat="1" ht="18">
-      <c r="A2" s="329" t="s">
+      <c r="A2" s="324" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="329"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-      <c r="L2" s="329"/>
-      <c r="M2" s="329"/>
-      <c r="N2" s="329"/>
-      <c r="O2" s="329"/>
-      <c r="P2" s="329"/>
-      <c r="Q2" s="329"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="324"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="330" t="s">
+      <c r="A3" s="325" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="331"/>
-      <c r="C3" s="331"/>
-      <c r="D3" s="331"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="331"/>
-      <c r="H3" s="331"/>
-      <c r="I3" s="331"/>
-      <c r="J3" s="331"/>
-      <c r="K3" s="331"/>
-      <c r="L3" s="331"/>
-      <c r="M3" s="331"/>
-      <c r="N3" s="331"/>
-      <c r="O3" s="331"/>
-      <c r="P3" s="331"/>
-      <c r="Q3" s="332"/>
+      <c r="B3" s="326"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="326"/>
+      <c r="N3" s="326"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="326"/>
+      <c r="Q3" s="327"/>
       <c r="S3" s="56"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6116,50 +6104,50 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="333" t="s">
+      <c r="A4" s="328" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="330" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="324" t="s">
+      <c r="C4" s="319" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="324" t="s">
+      <c r="D4" s="319" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="319" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324" t="s">
+      <c r="F4" s="319"/>
+      <c r="G4" s="319" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="324" t="s">
+      <c r="H4" s="319" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="324" t="s">
+      <c r="I4" s="319" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="324" t="s">
+      <c r="J4" s="319" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="324" t="s">
+      <c r="K4" s="319" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="324" t="s">
+      <c r="L4" s="319" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="324" t="s">
+      <c r="M4" s="319" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="324" t="s">
+      <c r="N4" s="319" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="326" t="s">
+      <c r="O4" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="337" t="s">
+      <c r="P4" s="332" t="s">
         <v>70</v>
       </c>
       <c r="Q4" s="135" t="s">
@@ -6172,22 +6160,22 @@
       <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="334"/>
-      <c r="B5" s="336"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
-      <c r="N5" s="325"/>
-      <c r="O5" s="327"/>
-      <c r="P5" s="338"/>
+      <c r="A5" s="329"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="320"/>
+      <c r="J5" s="320"/>
+      <c r="K5" s="320"/>
+      <c r="L5" s="320"/>
+      <c r="M5" s="320"/>
+      <c r="N5" s="320"/>
+      <c r="O5" s="322"/>
+      <c r="P5" s="333"/>
       <c r="Q5" s="136" t="s">
         <v>45</v>
       </c>
@@ -6445,17 +6433,29 @@
       <c r="W11" s="34"/>
     </row>
     <row r="12" spans="1:24" s="13" customFormat="1">
-      <c r="A12" s="81"/>
-      <c r="B12" s="89"/>
+      <c r="A12" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="89">
+        <v>800</v>
+      </c>
       <c r="C12" s="82"/>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
       <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
+      <c r="G12" s="90">
+        <v>270</v>
+      </c>
       <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
+      <c r="I12" s="90">
+        <v>50</v>
+      </c>
+      <c r="J12" s="90">
+        <v>30</v>
+      </c>
+      <c r="K12" s="90">
+        <v>400</v>
+      </c>
       <c r="L12" s="90"/>
       <c r="M12" s="90"/>
       <c r="N12" s="121"/>
@@ -6463,7 +6463,7 @@
       <c r="P12" s="92"/>
       <c r="Q12" s="86">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="R12" s="87"/>
       <c r="S12" s="34"/>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="B37" s="107">
         <f>SUM(B6:B36)</f>
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="C37" s="108">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="G37" s="108">
         <f>SUM(G6:G36)</f>
-        <v>1800</v>
+        <v>2070</v>
       </c>
       <c r="H37" s="108">
         <f t="shared" si="1"/>
@@ -7118,15 +7118,15 @@
       </c>
       <c r="I37" s="108">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J37" s="108">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="K37" s="108">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L37" s="108">
         <f t="shared" si="1"/>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="Q37" s="110">
         <f>SUM(Q6:Q36)</f>
-        <v>16010</v>
+        <v>17560</v>
       </c>
       <c r="S37" s="241" t="s">
         <v>52</v>
@@ -9154,8 +9154,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
@@ -9173,6 +9171,8 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9186,7 +9186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -9214,14 +9214,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="345"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="340"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
       <c r="I1" s="152"/>
@@ -9315,14 +9315,14 @@
       <c r="CS1" s="147"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="341" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="348"/>
+      <c r="B2" s="342"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="343"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="152"/>
@@ -9416,14 +9416,14 @@
       <c r="CS2" s="147"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="344" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="351"/>
+      <c r="B3" s="345"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="346"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="152"/>
@@ -10290,13 +10290,21 @@
       <c r="CS10" s="147"/>
     </row>
     <row r="11" spans="1:97">
-      <c r="A11" s="192"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="55"/>
+      <c r="A11" s="192" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="55">
+        <v>429610</v>
+      </c>
+      <c r="C11" s="58">
+        <v>285120</v>
+      </c>
+      <c r="D11" s="55">
+        <v>1550</v>
+      </c>
       <c r="E11" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>286670</v>
       </c>
       <c r="F11" s="244"/>
       <c r="G11" s="254"/>
@@ -12539,23 +12547,23 @@
       </c>
       <c r="B33" s="272">
         <f>SUM(B5:B32)</f>
-        <v>2093220</v>
+        <v>2522830</v>
       </c>
       <c r="C33" s="273">
         <f>SUM(C5:C32)</f>
-        <v>2037570</v>
+        <v>2322690</v>
       </c>
       <c r="D33" s="272">
         <f>SUM(D5:D32)</f>
-        <v>15950</v>
+        <v>17500</v>
       </c>
       <c r="E33" s="272">
         <f>SUM(E5:E32)</f>
-        <v>2053520</v>
+        <v>2340190</v>
       </c>
       <c r="F33" s="272">
         <f>B33-E33</f>
-        <v>39700</v>
+        <v>182640</v>
       </c>
       <c r="G33" s="274"/>
       <c r="H33" s="148"/>
@@ -12750,12 +12758,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="142"/>
-      <c r="B35" s="341" t="s">
+      <c r="B35" s="336" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="341"/>
-      <c r="D35" s="341"/>
-      <c r="E35" s="341"/>
+      <c r="C35" s="336"/>
+      <c r="D35" s="336"/>
+      <c r="E35" s="336"/>
       <c r="F35" s="143"/>
       <c r="G35" s="148"/>
       <c r="H35" s="148"/>
@@ -13512,16 +13520,10 @@
       <c r="A42" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="126" t="s">
-        <v>227</v>
-      </c>
+      <c r="B42" s="126"/>
       <c r="C42" s="125"/>
-      <c r="D42" s="218">
-        <v>1000</v>
-      </c>
-      <c r="E42" s="185" t="s">
-        <v>220</v>
-      </c>
+      <c r="D42" s="218"/>
+      <c r="E42" s="185"/>
       <c r="F42" s="147"/>
       <c r="G42" s="156" t="s">
         <v>13</v>
@@ -13626,10 +13628,10 @@
       <c r="D43" s="218"/>
       <c r="E43" s="185"/>
       <c r="F43" s="143"/>
-      <c r="G43" s="342"/>
-      <c r="H43" s="342"/>
-      <c r="I43" s="342"/>
-      <c r="J43" s="342"/>
+      <c r="G43" s="337"/>
+      <c r="H43" s="337"/>
+      <c r="I43" s="337"/>
+      <c r="J43" s="337"/>
       <c r="K43" s="67"/>
       <c r="L43" s="152"/>
       <c r="M43" s="67"/>
@@ -13951,10 +13953,10 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="220">
-        <v>416750</v>
+        <v>514520</v>
       </c>
       <c r="E46" s="283" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F46" s="140"/>
       <c r="G46" s="147"/>
@@ -14073,10 +14075,10 @@
         <v>1765002244</v>
       </c>
       <c r="D47" s="221">
-        <v>250050</v>
+        <v>247000</v>
       </c>
       <c r="E47" s="187" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F47" s="141"/>
       <c r="G47" s="147"/>
@@ -14439,10 +14441,10 @@
         <v>1733624262</v>
       </c>
       <c r="D50" s="221">
-        <v>176030</v>
+        <v>170870</v>
       </c>
       <c r="E50" s="187" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F50" s="141"/>
       <c r="G50" s="147"/>
@@ -14805,10 +14807,10 @@
         <v>1725821212</v>
       </c>
       <c r="D53" s="221">
-        <v>40060</v>
+        <v>39690</v>
       </c>
       <c r="E53" s="189" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F53" s="141"/>
       <c r="G53" s="147"/>
@@ -16231,20 +16233,20 @@
       <c r="CS64" s="147"/>
     </row>
     <row r="65" spans="1:97">
-      <c r="A65" s="315" t="s">
+      <c r="A65" s="238" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="316" t="s">
+      <c r="B65" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="317">
+      <c r="C65" s="125">
         <v>1774412324</v>
       </c>
-      <c r="D65" s="318">
-        <v>2840</v>
-      </c>
-      <c r="E65" s="319" t="s">
-        <v>220</v>
+      <c r="D65" s="221">
+        <v>25000</v>
+      </c>
+      <c r="E65" s="188" t="s">
+        <v>223</v>
       </c>
       <c r="F65" s="141"/>
       <c r="G65" s="147"/>
@@ -16476,19 +16478,19 @@
     </row>
     <row r="67" spans="1:97">
       <c r="A67" s="238" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="125" t="s">
-        <v>81</v>
+        <v>97</v>
+      </c>
+      <c r="B67" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="125">
+        <v>1716094816</v>
       </c>
       <c r="D67" s="221">
-        <v>7000</v>
-      </c>
-      <c r="E67" s="187" t="s">
-        <v>134</v>
+        <v>29910</v>
+      </c>
+      <c r="E67" s="188" t="s">
+        <v>200</v>
       </c>
       <c r="F67" s="141"/>
       <c r="G67" s="147"/>
@@ -16598,19 +16600,19 @@
     </row>
     <row r="68" spans="1:97">
       <c r="A68" s="238" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="125" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="B68" s="127" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="125">
+        <v>1716601350</v>
       </c>
       <c r="D68" s="221">
-        <v>79590</v>
-      </c>
-      <c r="E68" s="188" t="s">
-        <v>161</v>
+        <v>12030</v>
+      </c>
+      <c r="E68" s="189" t="s">
+        <v>220</v>
       </c>
       <c r="F68" s="141"/>
       <c r="G68" s="147"/>
@@ -16720,19 +16722,17 @@
     </row>
     <row r="69" spans="1:97">
       <c r="A69" s="238" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="C69" s="125">
-        <v>1716094816</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="125"/>
       <c r="D69" s="221">
-        <v>29910</v>
-      </c>
-      <c r="E69" s="188" t="s">
-        <v>200</v>
+        <v>5000</v>
+      </c>
+      <c r="E69" s="187" t="s">
+        <v>220</v>
       </c>
       <c r="F69" s="67"/>
       <c r="G69" s="147"/>
@@ -16842,19 +16842,19 @@
     </row>
     <row r="70" spans="1:97">
       <c r="A70" s="238" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="127" t="s">
-        <v>181</v>
-      </c>
-      <c r="C70" s="125">
-        <v>1716601350</v>
+        <v>99</v>
+      </c>
+      <c r="B70" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="125" t="s">
+        <v>81</v>
       </c>
       <c r="D70" s="221">
-        <v>12030</v>
-      </c>
-      <c r="E70" s="189" t="s">
-        <v>220</v>
+        <v>7000</v>
+      </c>
+      <c r="E70" s="187" t="s">
+        <v>134</v>
       </c>
       <c r="F70" s="141"/>
       <c r="G70" s="147"/>
@@ -16964,17 +16964,19 @@
     </row>
     <row r="71" spans="1:97">
       <c r="A71" s="238" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="B71" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="125"/>
+        <v>92</v>
+      </c>
+      <c r="C71" s="125" t="s">
+        <v>80</v>
+      </c>
       <c r="D71" s="221">
-        <v>5000</v>
-      </c>
-      <c r="E71" s="187" t="s">
-        <v>220</v>
+        <v>79590</v>
+      </c>
+      <c r="E71" s="188" t="s">
+        <v>161</v>
       </c>
       <c r="F71" s="143"/>
       <c r="G71" s="147"/>
@@ -17430,19 +17432,17 @@
     </row>
     <row r="75" spans="1:97">
       <c r="A75" s="238" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="125">
-        <v>1811710431</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C75" s="125"/>
       <c r="D75" s="221">
-        <v>5800</v>
-      </c>
-      <c r="E75" s="187" t="s">
-        <v>154</v>
+        <v>18310</v>
+      </c>
+      <c r="E75" s="188" t="s">
+        <v>200</v>
       </c>
       <c r="F75" s="141"/>
       <c r="G75" s="147"/>
@@ -17552,19 +17552,17 @@
     </row>
     <row r="76" spans="1:97">
       <c r="A76" s="238" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" s="125">
-        <v>1761236031</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C76" s="125"/>
       <c r="D76" s="221">
-        <v>7000</v>
-      </c>
-      <c r="E76" s="188" t="s">
-        <v>132</v>
+        <v>7300</v>
+      </c>
+      <c r="E76" s="189" t="s">
+        <v>214</v>
       </c>
       <c r="F76" s="141"/>
       <c r="G76" s="147"/>
@@ -17673,20 +17671,18 @@
       <c r="CS76" s="147"/>
     </row>
     <row r="77" spans="1:97">
-      <c r="A77" s="302" t="s">
-        <v>100</v>
+      <c r="A77" s="238" t="s">
+        <v>216</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" s="125">
-        <v>1744752366</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C77" s="125"/>
       <c r="D77" s="221">
-        <v>29500</v>
-      </c>
-      <c r="E77" s="188" t="s">
-        <v>193</v>
+        <v>5000</v>
+      </c>
+      <c r="E77" s="189" t="s">
+        <v>223</v>
       </c>
       <c r="F77" s="141"/>
       <c r="G77" s="147"/>
@@ -17796,19 +17792,19 @@
     </row>
     <row r="78" spans="1:97">
       <c r="A78" s="238" t="s">
-        <v>100</v>
-      </c>
-      <c r="B78" s="59" t="s">
-        <v>158</v>
+        <v>152</v>
+      </c>
+      <c r="B78" s="60" t="s">
+        <v>153</v>
       </c>
       <c r="C78" s="125">
-        <v>1309083520</v>
+        <v>1811710431</v>
       </c>
       <c r="D78" s="221">
-        <v>290000</v>
-      </c>
-      <c r="E78" s="188" t="s">
-        <v>190</v>
+        <v>5800</v>
+      </c>
+      <c r="E78" s="187" t="s">
+        <v>154</v>
       </c>
       <c r="F78" s="141"/>
       <c r="G78" s="147"/>
@@ -17918,16 +17914,16 @@
     </row>
     <row r="79" spans="1:97">
       <c r="A79" s="238" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="B79" s="60" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C79" s="125"/>
       <c r="D79" s="221">
-        <v>7000</v>
-      </c>
-      <c r="E79" s="188" t="s">
+        <v>20000</v>
+      </c>
+      <c r="E79" s="187" t="s">
         <v>220</v>
       </c>
       <c r="F79" s="141"/>
@@ -18038,19 +18034,17 @@
     </row>
     <row r="80" spans="1:97">
       <c r="A80" s="238" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B80" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="125">
-        <v>1789726772</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C80" s="125"/>
       <c r="D80" s="221">
-        <v>46000</v>
-      </c>
-      <c r="E80" s="187" t="s">
-        <v>214</v>
+        <v>7700</v>
+      </c>
+      <c r="E80" s="188" t="s">
+        <v>220</v>
       </c>
       <c r="F80" s="141" t="s">
         <v>13</v>
@@ -18162,17 +18156,17 @@
     </row>
     <row r="81" spans="1:97">
       <c r="A81" s="238" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="B81" s="60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C81" s="125"/>
       <c r="D81" s="221">
-        <v>3500</v>
+        <v>16190</v>
       </c>
       <c r="E81" s="189" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F81" s="141"/>
       <c r="G81" s="147"/>
@@ -18282,17 +18276,17 @@
     </row>
     <row r="82" spans="1:97">
       <c r="A82" s="238" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="B82" s="60" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C82" s="125"/>
       <c r="D82" s="221">
-        <v>19000</v>
-      </c>
-      <c r="E82" s="188" t="s">
-        <v>200</v>
+        <v>7700</v>
+      </c>
+      <c r="E82" s="189" t="s">
+        <v>214</v>
       </c>
       <c r="F82" s="306"/>
       <c r="G82" s="147"/>
@@ -18402,14 +18396,14 @@
     </row>
     <row r="83" spans="1:97">
       <c r="A83" s="238" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B83" s="60" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C83" s="125"/>
       <c r="D83" s="221">
-        <v>7700</v>
+        <v>9980</v>
       </c>
       <c r="E83" s="189" t="s">
         <v>214</v>
@@ -18520,17 +18514,19 @@
     </row>
     <row r="84" spans="1:97">
       <c r="A84" s="238" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="B84" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="C84" s="125"/>
+        <v>91</v>
+      </c>
+      <c r="C84" s="125">
+        <v>1761236031</v>
+      </c>
       <c r="D84" s="221">
-        <v>9980</v>
-      </c>
-      <c r="E84" s="189" t="s">
-        <v>214</v>
+        <v>7000</v>
+      </c>
+      <c r="E84" s="188" t="s">
+        <v>132</v>
       </c>
       <c r="F84" s="306"/>
       <c r="G84" s="147"/>
@@ -18639,18 +18635,20 @@
       <c r="CS84" s="147"/>
     </row>
     <row r="85" spans="1:97">
-      <c r="A85" s="238" t="s">
-        <v>204</v>
+      <c r="A85" s="302" t="s">
+        <v>100</v>
       </c>
       <c r="B85" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" s="125"/>
+        <v>127</v>
+      </c>
+      <c r="C85" s="125">
+        <v>1744752366</v>
+      </c>
       <c r="D85" s="221">
-        <v>18310</v>
+        <v>29500</v>
       </c>
       <c r="E85" s="188" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F85" s="306"/>
       <c r="G85" s="147"/>
@@ -18760,17 +18758,19 @@
     </row>
     <row r="86" spans="1:97">
       <c r="A86" s="238" t="s">
-        <v>207</v>
-      </c>
-      <c r="B86" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="C86" s="125"/>
+        <v>100</v>
+      </c>
+      <c r="B86" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86" s="125">
+        <v>1309083520</v>
+      </c>
       <c r="D86" s="221">
-        <v>3500</v>
+        <v>290000</v>
       </c>
       <c r="E86" s="188" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F86" s="306"/>
       <c r="G86" s="147"/>
@@ -18880,14 +18880,14 @@
     </row>
     <row r="87" spans="1:97">
       <c r="A87" s="238" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="B87" s="60" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C87" s="125"/>
       <c r="D87" s="221">
-        <v>20000</v>
+        <v>15400</v>
       </c>
       <c r="E87" s="187" t="s">
         <v>220</v>
@@ -19000,17 +19000,19 @@
     </row>
     <row r="88" spans="1:97">
       <c r="A88" s="238" t="s">
-        <v>212</v>
-      </c>
-      <c r="B88" s="126" t="s">
-        <v>211</v>
-      </c>
-      <c r="C88" s="125"/>
+        <v>136</v>
+      </c>
+      <c r="B88" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="125">
+        <v>1789726772</v>
+      </c>
       <c r="D88" s="221">
-        <v>23000</v>
-      </c>
-      <c r="E88" s="188" t="s">
-        <v>209</v>
+        <v>46000</v>
+      </c>
+      <c r="E88" s="187" t="s">
+        <v>214</v>
       </c>
       <c r="F88" s="141"/>
       <c r="G88" s="147"/>
@@ -19120,17 +19122,17 @@
     </row>
     <row r="89" spans="1:97">
       <c r="A89" s="238" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="B89" s="60" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C89" s="125"/>
       <c r="D89" s="221">
-        <v>7300</v>
-      </c>
-      <c r="E89" s="189" t="s">
-        <v>214</v>
+        <v>19000</v>
+      </c>
+      <c r="E89" s="188" t="s">
+        <v>200</v>
       </c>
       <c r="F89" s="141"/>
       <c r="G89" s="147"/>
@@ -19230,17 +19232,17 @@
     </row>
     <row r="90" spans="1:97">
       <c r="A90" s="237" t="s">
-        <v>152</v>
-      </c>
-      <c r="B90" s="60" t="s">
-        <v>222</v>
+        <v>212</v>
+      </c>
+      <c r="B90" s="126" t="s">
+        <v>211</v>
       </c>
       <c r="C90" s="125"/>
       <c r="D90" s="221">
-        <v>7700</v>
+        <v>23000</v>
       </c>
       <c r="E90" s="188" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F90" s="141"/>
       <c r="G90" s="147"/>
@@ -19340,17 +19342,17 @@
     </row>
     <row r="91" spans="1:97">
       <c r="A91" s="237" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B91" s="60" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C91" s="125"/>
       <c r="D91" s="221">
-        <v>15400</v>
-      </c>
-      <c r="E91" s="187" t="s">
-        <v>220</v>
+        <v>29000</v>
+      </c>
+      <c r="E91" s="188" t="s">
+        <v>223</v>
       </c>
       <c r="F91" s="141"/>
       <c r="G91" s="147"/>
@@ -19449,19 +19451,11 @@
       <c r="CS91" s="147"/>
     </row>
     <row r="92" spans="1:97">
-      <c r="A92" s="238" t="s">
-        <v>216</v>
-      </c>
-      <c r="B92" s="60" t="s">
-        <v>226</v>
-      </c>
+      <c r="A92" s="238"/>
+      <c r="B92" s="60"/>
       <c r="C92" s="125"/>
-      <c r="D92" s="221">
-        <v>3600</v>
-      </c>
-      <c r="E92" s="189" t="s">
-        <v>220</v>
-      </c>
+      <c r="D92" s="221"/>
+      <c r="E92" s="188"/>
       <c r="F92" s="147"/>
       <c r="G92" s="147"/>
       <c r="H92" s="197"/>
@@ -22253,14 +22247,14 @@
       <c r="CS118" s="147"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="339" t="s">
+      <c r="A119" s="334" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="340"/>
-      <c r="C119" s="352"/>
+      <c r="B119" s="335"/>
+      <c r="C119" s="347"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
-        <v>2432885</v>
+        <v>2575825</v>
       </c>
       <c r="E119" s="216"/>
       <c r="F119" s="147"/>
@@ -22460,14 +22454,14 @@
       <c r="CS120" s="147"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="339" t="s">
+      <c r="A121" s="334" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="340"/>
-      <c r="C121" s="340"/>
+      <c r="B121" s="335"/>
+      <c r="C121" s="335"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
-        <v>2432885</v>
+        <v>2575825</v>
       </c>
       <c r="E121" s="216"/>
       <c r="F121" s="147"/>
@@ -33675,8 +33669,8 @@
       <c r="L1357" s="53"/>
     </row>
   </sheetData>
-  <sortState ref="B37:E44">
-    <sortCondition ref="B37"/>
+  <sortState ref="A59:E71">
+    <sortCondition ref="A58"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="A121:C121"/>
@@ -33702,7 +33696,7 @@
   <dimension ref="A1:Y218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33720,35 +33714,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="348" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="355"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="350"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="362" t="s">
+      <c r="A2" s="357" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="363"/>
-      <c r="C2" s="363"/>
-      <c r="D2" s="363"/>
-      <c r="E2" s="364"/>
+      <c r="B2" s="358"/>
+      <c r="C2" s="358"/>
+      <c r="D2" s="358"/>
+      <c r="E2" s="359"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="356" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="358"/>
+      <c r="A3" s="351" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="353"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33771,15 +33765,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="365" t="s">
+      <c r="A4" s="360" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="366"/>
+      <c r="B4" s="361"/>
       <c r="C4" s="280"/>
-      <c r="D4" s="367" t="s">
+      <c r="D4" s="362" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="368"/>
+      <c r="E4" s="363"/>
       <c r="F4" s="5"/>
       <c r="G4" s="48"/>
       <c r="H4" s="7"/>
@@ -33813,7 +33807,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="257">
-        <v>6992170.8006999977</v>
+        <v>6573895.5251000002</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="276"/>
@@ -33841,7 +33835,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="261">
-        <v>55630.533600000032</v>
+        <v>66965.258000000045</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="41" t="s">
@@ -33879,7 +33873,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="305">
-        <v>525943.73290000111</v>
+        <v>161338.73290000111</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="277"/>
@@ -33961,14 +33955,14 @@
         <v>14</v>
       </c>
       <c r="B10" s="261">
-        <v>15630</v>
+        <v>16905</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="41" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="257">
-        <v>2432885</v>
+        <v>2575825</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="249"/>
@@ -34029,14 +34023,14 @@
       </c>
       <c r="B12" s="308">
         <f>B6+B7-B10-B11</f>
-        <v>40000.533600000032</v>
+        <v>50060.258000000045</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="41" t="s">
         <v>215</v>
       </c>
       <c r="E12" s="259">
-        <v>3563</v>
+        <v>653563</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>52</v>
@@ -34179,7 +34173,7 @@
       </c>
       <c r="B17" s="262">
         <f>B5+B6-B10+B14+B15+B16</f>
-        <v>10040000.533599999</v>
+        <v>10050060.258000001</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42" t="s">
@@ -34187,7 +34181,7 @@
       </c>
       <c r="E17" s="260">
         <f>E5+E6+E7+E10+E11+E12+E15</f>
-        <v>10040000.533599999</v>
+        <v>10050060.258000001</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="119">
@@ -34243,13 +34237,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="359" t="s">
+      <c r="A19" s="354" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="360"/>
-      <c r="C19" s="360"/>
-      <c r="D19" s="360"/>
-      <c r="E19" s="361"/>
+      <c r="B19" s="355"/>
+      <c r="C19" s="355"/>
+      <c r="D19" s="355"/>
+      <c r="E19" s="356"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
@@ -34283,7 +34277,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="287">
-        <v>416750</v>
+        <v>514520</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
@@ -34352,7 +34346,7 @@
         <v>128</v>
       </c>
       <c r="E22" s="291">
-        <v>250050</v>
+        <v>247000</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -34418,7 +34412,7 @@
         <v>147</v>
       </c>
       <c r="E24" s="287">
-        <v>176030</v>
+        <v>170870</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="7"/>
